--- a/Outputs/tbl/PreahSihanouk_fci_size.xlsx
+++ b/Outputs/tbl/PreahSihanouk_fci_size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rstudio\Rong_ARG\Rong-ARG\Outputs\tbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89A6019-8192-4970-9517-C682AD51564B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B54B56-7375-40AD-9E54-F0048A0C1205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{627C0C86-8FB8-46F7-9120-F2583F438B4E}"/>
+    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15840" xr2:uid="{B2303856-ED5F-42FA-8C5B-F45E196F634F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,76 +34,212 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
-  <si>
-    <t>Preah Sihanouk</t>
-  </si>
-  <si>
-    <t>Koh Rong</t>
-  </si>
-  <si>
-    <t>Prey Nob</t>
-  </si>
-  <si>
-    <t>Tuek Thla</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="63">
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>fci_name</t>
+  </si>
+  <si>
+    <t>size_ha</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>commune</t>
+  </si>
+  <si>
+    <t>type_area</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>issuedate</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>referen_kh</t>
+  </si>
+  <si>
+    <t>last_updat</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>Koh Rung Sanlem</t>
+  </si>
+  <si>
+    <t>Preah Sihanouk</t>
+  </si>
+  <si>
+    <t>Koh Rong</t>
+  </si>
+  <si>
+    <t>Fisheries</t>
+  </si>
+  <si>
+    <t>Community Fishery</t>
+  </si>
+  <si>
+    <t>Marine fishery</t>
+  </si>
+  <si>
+    <t>Report_on_Marine_Resources_and_Habitats__00.05.2011.pdf</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Prek Svay</t>
+  </si>
+  <si>
+    <t>Prakas_No_579__10.09.2010.pdf</t>
+  </si>
+  <si>
+    <t>Prey Nub2</t>
+  </si>
+  <si>
+    <t>Prey Nob</t>
+  </si>
+  <si>
+    <t>Tuek Thla</t>
+  </si>
+  <si>
+    <t>Agreement_and_relevant_documents_for_Preynob_Pir_community_fishery.pdf</t>
+  </si>
+  <si>
+    <t>Beung Rang flooded forest protection</t>
   </si>
   <si>
     <t>Sameakki</t>
   </si>
   <si>
-    <t>Stueng Hav</t>
+    <t>Agreement_and_relevant_documents_for_Boeung_Raing_community_fishery.pdf</t>
+  </si>
+  <si>
+    <t>Bek Krong flooded forest protection</t>
+  </si>
+  <si>
+    <t>Agreement_and_relevant_documents_for_Beak_Krong_community_fishery.pdf</t>
+  </si>
+  <si>
+    <t>Kam penh</t>
+  </si>
+  <si>
+    <t>Stueng Hav</t>
   </si>
   <si>
     <t>Kampenh</t>
   </si>
   <si>
-    <t>Tuol Totueng</t>
+    <t>Agreement_and_relevant_documents_for_Khampenh_community_fishery.pdf</t>
+  </si>
+  <si>
+    <t>Chhumpou Khmao</t>
+  </si>
+  <si>
+    <t>Tuol Totueng</t>
+  </si>
+  <si>
+    <t>Agreement_Chom_Pou_Khmao_flooded_forest_protection___17.10.2008.pdf;Prakas_No_579__10.09.2010.pdf</t>
+  </si>
+  <si>
+    <t>Chong Ou</t>
   </si>
   <si>
     <t>Samrong</t>
   </si>
   <si>
-    <t>Andoung Thma</t>
-  </si>
-  <si>
-    <t>Bet Trang</t>
+    <t>Agreement_and_relevant_documents_for_Jorng_Our_community_fishery.pdf</t>
+  </si>
+  <si>
+    <t>Banteay Prey flooded forest protection</t>
+  </si>
+  <si>
+    <t>Andoung Thma</t>
+  </si>
+  <si>
+    <t>Agreement_and_relevant_documents_for_Banteay_Prey_community_fishery.pdf</t>
+  </si>
+  <si>
+    <t>Bit Trang flooded forest protection</t>
+  </si>
+  <si>
+    <t>Bet Trang</t>
+  </si>
+  <si>
+    <t>Agreement_and_relevant_documents_for_Bit_Trang_community_fishery.pdf</t>
+  </si>
+  <si>
+    <t>28/01/2022</t>
+  </si>
+  <si>
+    <t>Phum Deum Thkov</t>
   </si>
   <si>
     <t>Sihanouk</t>
   </si>
   <si>
-    <t>Koh Rung</t>
-  </si>
-  <si>
-    <t>Tuek L'ak</t>
-  </si>
-  <si>
-    <t>Tumnob Rolok</t>
-  </si>
-  <si>
-    <t>Ou Treh</t>
-  </si>
-  <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>Commune</t>
-  </si>
-  <si>
-    <t>Size_ha</t>
+    <t>26/12/2011</t>
+  </si>
+  <si>
+    <t>Prakas_No_628__26.12.2011.pdf</t>
+  </si>
+  <si>
+    <t>Chroulong flooded forest protection</t>
+  </si>
+  <si>
+    <t>Tuek L'ak</t>
+  </si>
+  <si>
+    <t>Agreement_and_relevant_documents_for_Jrolorng_community_fishery.pdf</t>
+  </si>
+  <si>
+    <t>Tumnob Rolok flooded forest protection</t>
+  </si>
+  <si>
+    <t>Tumnob Rolok</t>
+  </si>
+  <si>
+    <t>Agreement_and_relevant_documents_for_Tumnub_Rorlork_community_fishery.pdf</t>
+  </si>
+  <si>
+    <t>Ou Tress flooded forest protection</t>
+  </si>
+  <si>
+    <t>Ou Treh</t>
+  </si>
+  <si>
+    <t>Agreement_and_relevant_documents_for_Ou_Tres_community_fishery.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -125,45 +261,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,258 +593,616 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F60CAAA-E59B-4C65-8400-263A1C9E63E8}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7314E8-9438-44A0-9D96-B82316DE4EEC}">
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="95.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4">
+        <v>11257</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>45352</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4">
         <v>7447</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2">
+        <v>40460</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3">
+        <v>45352</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4605</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4">
+        <v>45352</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>45352</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="E3" s="3">
-        <v>4605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1">
         <v>3431</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6">
+        <v>45352</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1">
         <v>3427</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7">
+        <v>45352</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1">
         <v>2670</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2">
+        <v>40460</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8">
+        <v>45352</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2629</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9">
+        <v>45352</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="E8" s="3">
-        <v>2629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1">
         <v>2229</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10">
+        <v>45352</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>282</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1734</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12">
+        <v>45352</v>
+      </c>
+      <c r="N12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="E10" s="3">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1">
         <v>1572</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13">
+        <v>45352</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1">
         <v>1189</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14">
+        <v>45352</v>
+      </c>
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1">
         <v>496</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15">
+        <v>45352</v>
+      </c>
+      <c r="N15" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>